--- a/jpcore-r4/feature/swg2-ObservationPhysicalExamのローカルコードを許容/StructureDefinition-jp-diagnosticreport-common.xlsx
+++ b/jpcore-r4/feature/swg2-ObservationPhysicalExamのローカルコードを許容/StructureDefinition-jp-diagnosticreport-common.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-24T12:11:23+00:00</t>
+    <t>2022-08-24T12:47:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
